--- a/biology/Médecine/Coumba_Touré_Kane/Coumba_Touré_Kane.xlsx
+++ b/biology/Médecine/Coumba_Touré_Kane/Coumba_Touré_Kane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coumba_Tour%C3%A9_Kane</t>
+          <t>Coumba_Touré_Kane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coumba Touré Kane, née en 1963, est une chercheuse sénégalaise, spécialiste en virologie et microbiologie. Ses travaux, particulièrement tournés vers le VIH, s'élargissent notamment en 2020 au coronavirus, particulièrement dans la cadre de la pandémie de Covid-19.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coumba_Tour%C3%A9_Kane</t>
+          <t>Coumba_Touré_Kane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coumba Touré Kane, après une scolarité au lycée John Fitzgerald Kennedy de Dakar, passe son internat en pharmacie à l'université Cheikh-Anta-Diop, notamment avec Souleymane Mboup, qui est son professeur et maître de stage et l'encourage à travailler avec lui sur la mise en place d'un laboratoire de biologie à Dakar. Elle soutient sa thèse de doctorat à l'Université de Montpellier[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coumba Touré Kane, après une scolarité au lycée John Fitzgerald Kennedy de Dakar, passe son internat en pharmacie à l'université Cheikh-Anta-Diop, notamment avec Souleymane Mboup, qui est son professeur et maître de stage et l'encourage à travailler avec lui sur la mise en place d'un laboratoire de biologie à Dakar. Elle soutient sa thèse de doctorat à l'Université de Montpellier,. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coumba_Tour%C3%A9_Kane</t>
+          <t>Coumba_Touré_Kane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coumba Touré Kane crée en 1998 l'Iressef (Institut de recherche en santé, de surveillance épidémiologique et de formation), premier laboratoire de biologie moléculaire d’Afrique de l’Ouest. Ce centre est plus particulièrement voué, lors de sa création, à l'étude des antirétroviraux[1].
-Dans le cadre de la pandémie de Covid-19, l'Iressef est fortement sollicitée pour pratiquer des tests de dépistage[3],[4], mais aussi juger de la pertinence de certains médicaments, en particulier l'hydroxychloroquine[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coumba Touré Kane crée en 1998 l'Iressef (Institut de recherche en santé, de surveillance épidémiologique et de formation), premier laboratoire de biologie moléculaire d’Afrique de l’Ouest. Ce centre est plus particulièrement voué, lors de sa création, à l'étude des antirétroviraux.
+Dans le cadre de la pandémie de Covid-19, l'Iressef est fortement sollicitée pour pratiquer des tests de dépistage mais aussi juger de la pertinence de certains médicaments, en particulier l'hydroxychloroquine.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coumba_Tour%C3%A9_Kane</t>
+          <t>Coumba_Touré_Kane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 28 juillet 2020, Coumba Touré Kane est nommée recteur de l’Université du Sine Saloum El-Hâdj Ibrahima Niass[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 28 juillet 2020, Coumba Touré Kane est nommée recteur de l’Université du Sine Saloum El-Hâdj Ibrahima Niass.
 </t>
         </is>
       </c>
